--- a/QUBT.xlsx
+++ b/QUBT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC45D0A2-A353-4C6E-A3F6-82CEED465920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2766448-D4E5-44C2-B501-BC6EE7BBC513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19780" yWindow="40" windowWidth="18140" windowHeight="15250" xr2:uid="{E58705EB-566E-4FED-A27E-83277B37A640}"/>
+    <workbookView xWindow="48900" yWindow="4790" windowWidth="21540" windowHeight="12540" xr2:uid="{E58705EB-566E-4FED-A27E-83277B37A640}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Price</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>UT Austin controversey - remove from PR</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Cash/Share</t>
   </si>
 </sst>
 </file>
@@ -599,13 +605,15 @@
   <dimension ref="B2:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="8.7265625" style="1"/>
-    <col min="15" max="15" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="10.90625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="12.1796875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -617,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -628,10 +636,11 @@
         <v>1</v>
       </c>
       <c r="N3" s="5">
-        <v>99.086476000000005</v>
+        <f>159.883187+37.183937+26.867276</f>
+        <v>223.93439999999998</v>
       </c>
       <c r="O3" s="3">
-        <v>45600</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -643,7 +652,7 @@
       </c>
       <c r="N4" s="5">
         <f>+N2*N3</f>
-        <v>990.86476000000005</v>
+        <v>4030.8191999999999</v>
       </c>
       <c r="O4" s="4"/>
     </row>
@@ -655,10 +664,11 @@
         <v>3</v>
       </c>
       <c r="N5" s="5">
-        <v>3.0640000000000001</v>
+        <f>348.758+(750*0.95)+(500*0.95)</f>
+        <v>1536.258</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -669,10 +679,10 @@
         <v>4</v>
       </c>
       <c r="N6" s="5">
-        <v>6.5140000000000002</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -684,7 +694,7 @@
       </c>
       <c r="N7" s="5">
         <f>+N4-N5+N6</f>
-        <v>994.31476000000009</v>
+        <v>2494.5612000000001</v>
       </c>
       <c r="O7" s="4"/>
     </row>
@@ -693,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="N9" s="5">
-        <v>209.67500000000001</v>
+        <v>219.982</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -707,10 +717,19 @@
         <v>8</v>
       </c>
       <c r="N10" s="5">
-        <v>149.245</v>
+        <v>615.94799999999998</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="2">
+        <f>+N5/N3</f>
+        <v>6.8603037318071731</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
